--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2019.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2019.xlsx
@@ -2308,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>50809.9</v>
+        <v>4017.55</v>
       </c>
       <c r="F57" t="n">
-        <v>109184.95</v>
+        <v>6294.25</v>
       </c>
       <c r="G57" t="n">
         <v>38175</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>198169.85</v>
+        <v>48486.8</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5076,10 +5076,10 @@
         <v>72066068.34999999</v>
       </c>
       <c r="E147" t="n">
-        <v>2524141.35</v>
+        <v>2477349</v>
       </c>
       <c r="F147" t="n">
-        <v>5134585.91</v>
+        <v>5031695.21</v>
       </c>
       <c r="G147" t="n">
         <v>11389875.9</v>
@@ -5091,7 +5091,7 @@
         <v>68873710.33</v>
       </c>
       <c r="J147" t="n">
-        <v>185752261.75</v>
+        <v>185602578.7</v>
       </c>
     </row>
   </sheetData>
